--- a/201025_Results_Cali/output/m3/21102025_mod3_by_travel_mode.xlsx
+++ b/201025_Results_Cali/output/m3/21102025_mod3_by_travel_mode.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J185"/>
+  <dimension ref="A1:J194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7927,22 +7927,22 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>55 (78.6%)</t>
+          <t>55 (76.4%)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>9 (23.1%)</t>
+          <t>9 (18.4%)</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>29 (22.1%)</t>
+          <t>30 (22.1%)</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>37 (71.2%)</t>
+          <t>37 (56.1%)</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>35 (37.6%)</t>
+          <t>36 (35.0%)</t>
         </is>
       </c>
       <c r="J152">
@@ -7977,17 +7977,17 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2 (2.9%)</t>
+          <t>2 (2.8%)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>19 (48.7%)</t>
+          <t>19 (38.8%)</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>3 (2.3%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>1 (1.0%)</t>
         </is>
       </c>
       <c r="J153">
@@ -8022,37 +8022,37 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Caminar</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>5 (7.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>10 (25.6%)</t>
+          <t>8 (16.3%)</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>96 (73.3%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>11 (21.2%)</t>
+          <t>1 (1.5%)</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>4 (57.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>19 (20.4%)</t>
+          <t>2 (1.9%)</t>
         </is>
       </c>
       <c r="J154">
@@ -8072,37 +8072,37 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Otro modo</t>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2 (2.9%)</t>
+          <t>5 (6.9%)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>10 (20.4%)</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>96 (70.6%)</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>11 (16.7%)</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (57.1%)</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2 (2.2%)</t>
+          <t>19 (18.4%)</t>
         </is>
       </c>
       <c r="J155">
@@ -8122,17 +8122,17 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>6 (8.6%)</t>
+          <t>2 (2.8%)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>1 (2.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8142,17 +8142,17 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>4 (7.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2 (28.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>36 (38.7%)</t>
+          <t>2 (1.9%)</t>
         </is>
       </c>
       <c r="J156">
@@ -8162,37 +8162,37 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Condiciones físicas / salud</t>
+          <t>Taxi</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>1 (9.1%)</t>
+          <t>2 (2.8%)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>3 (15.8%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2 (5.7%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2 (8.7%)</t>
+          <t>13 (19.7%)</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -8202,61 +8202,61 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>7 (6.8%)</t>
         </is>
       </c>
       <c r="J157">
-        <v>0.031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Inseguridad / acoso</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2 (18.2%)</t>
+          <t>6 (8.3%)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>4 (11.4%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>5 (21.7%)</t>
+          <t>4 (6.1%)</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2 (50.0%)</t>
+          <t>2 (28.6%)</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>3 (5.9%)</t>
+          <t>36 (35.0%)</t>
         </is>
       </c>
       <c r="J158">
-        <v>0.031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -8272,41 +8272,41 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Limitaciones económicas</t>
+          <t>Condiciones físicas / salud</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>6 (54.5%)</t>
+          <t>1 (1.4%)</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>13 (68.4%)</t>
+          <t>3 (6.1%)</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>22 (62.9%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>13 (56.5%)</t>
+          <t>2 (3.0%)</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>1 (25.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>45 (88.2%)</t>
+          <t>1 (1.0%)</t>
         </is>
       </c>
       <c r="J159">
-        <v>0.031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -8322,62 +8322,62 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Tiempo / disponibilidad</t>
+          <t>Falta de infraestructura / distancia</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2 (18.2%)</t>
+          <t>3 (4.2%)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>3 (15.8%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>7 (20.0%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>3 (13.0%)</t>
+          <t>7 (10.6%)</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>1 (25.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2 (3.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="J160">
-        <v>0.031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Otra fuente</t>
+          <t>Inseguridad / acoso</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>6 (21.4%)</t>
+          <t>4 (5.6%)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8387,162 +8387,162 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>4 (2.9%)</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>1 (2.7%)</t>
+          <t>5 (7.6%)</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (28.6%)</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2 (4.2%)</t>
+          <t>5 (4.9%)</t>
         </is>
       </c>
       <c r="J161">
-        <v>0.0021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Vehículos motorizados</t>
+          <t>Limitaciones económicas</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>22 (78.6%)</t>
+          <t>6 (8.3%)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>26 (100.0%)</t>
+          <t>13 (26.5%)</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>54 (98.2%)</t>
+          <t>22 (16.2%)</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>36 (97.3%)</t>
+          <t>13 (19.7%)</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>3 (100.0%)</t>
+          <t>1 (14.3%)</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>46 (95.8%)</t>
+          <t>45 (43.7%)</t>
         </is>
       </c>
       <c r="J162">
-        <v>0.0021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Automóvil</t>
+          <t>Modo actual</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>24 (39.3%)</t>
+          <t>52 (72.2%)</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>17 (42.5%)</t>
+          <t>26 (53.1%)</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>28 (27.2%)</t>
+          <t>90 (66.2%)</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>17 (34.0%)</t>
+          <t>27 (40.9%)</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>1 (14.3%)</t>
+          <t>2 (28.6%)</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>26 (34.7%)</t>
+          <t>34 (33.0%)</t>
         </is>
       </c>
       <c r="J163">
-        <v>0.0322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Camión</t>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>6 (9.8%)</t>
+          <t>4 (5.6%)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>4 (10.0%)</t>
+          <t>3 (6.1%)</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>15 (14.6%)</t>
+          <t>8 (5.9%)</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>6 (12.0%)</t>
+          <t>9 (13.6%)</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8552,252 +8552,252 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>15 (20.0%)</t>
+          <t>16 (15.5%)</t>
         </is>
       </c>
       <c r="J164">
-        <v>0.0322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Tiempo / disponibilidad</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>8 (13.1%)</t>
+          <t>2 (2.8%)</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>1 (2.5%)</t>
+          <t>3 (6.1%)</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>9 (8.7%)</t>
+          <t>7 (5.1%)</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>8 (16.0%)</t>
+          <t>3 (4.5%)</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>3 (42.9%)</t>
+          <t>1 (14.3%)</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>6 (8.0%)</t>
+          <t>2 (1.9%)</t>
         </is>
       </c>
       <c r="J165">
-        <v>0.0322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Otro modo</t>
+          <t>Industria/Obras</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>4 (6.6%)</t>
+          <t>23 (31.9%)</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>1 (2.5%)</t>
+          <t>9 (18.4%)</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1 (1.0%)</t>
+          <t>39 (28.7%)</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>12 (18.2%)</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (28.6%)</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>21 (20.4%)</t>
         </is>
       </c>
       <c r="J166">
-        <v>0.0322</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Otra fuente</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>19 (31.1%)</t>
+          <t>8 (11.1%)</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>17 (42.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>50 (48.5%)</t>
+          <t>4 (2.9%)</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>19 (38.0%)</t>
+          <t>1 (1.5%)</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2 (28.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>28 (37.3%)</t>
+          <t>3 (2.9%)</t>
         </is>
       </c>
       <c r="J167">
-        <v>0.0322</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Condiciones climáticas</t>
+          <t>Productos químicos</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2 (2.8%)</t>
+          <t>6 (8.3%)</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>5 (10.4%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>6 (4.5%)</t>
+          <t>9 (6.6%)</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>1 (1.5%)</t>
+          <t>2 (3.0%)</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (14.3%)</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2 (1.9%)</t>
+          <t>5 (4.9%)</t>
         </is>
       </c>
       <c r="J168">
-        <v>0.008200000000000001</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Costos altos</t>
+          <t>Quema de residuos</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>14 (19.4%)</t>
+          <t>3 (4.2%)</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>2 (4.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>14 (10.4%)</t>
+          <t>9 (6.6%)</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>8 (12.3%)</t>
+          <t>5 (7.6%)</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2 (28.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -8806,93 +8806,93 @@
         </is>
       </c>
       <c r="J169">
-        <v>0.008200000000000001</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Falta de información</t>
+          <t>Vehículos motorizados</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>3 (4.2%)</t>
+          <t>22 (30.6%)</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>9 (18.8%)</t>
+          <t>26 (53.1%)</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>9 (6.7%)</t>
+          <t>54 (39.7%)</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>36 (54.5%)</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (42.9%)</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>11 (10.7%)</t>
+          <t>46 (44.7%)</t>
         </is>
       </c>
       <c r="J170">
-        <v>0.008200000000000001</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Falta de infraestructura</t>
+          <t>Vertederos (basureros) y rellenos sanitarios</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>18 (25.0%)</t>
+          <t>10 (13.9%)</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>5 (10.4%)</t>
+          <t>12 (24.5%)</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>28 (20.9%)</t>
+          <t>21 (15.4%)</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>15 (23.1%)</t>
+          <t>10 (15.2%)</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8902,617 +8902,1100 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>19 (18.4%)</t>
+          <t>22 (21.4%)</t>
         </is>
       </c>
       <c r="J171">
-        <v>0.008200000000000001</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Inseguridad / violencia</t>
+          <t>Automóvil</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>31 (43.1%)</t>
+          <t>26 (36.1%)</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>21 (43.8%)</t>
+          <t>17 (34.7%)</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>63 (47.0%)</t>
+          <t>30 (22.1%)</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>35 (53.8%)</t>
+          <t>19 (28.8%)</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>4 (57.1%)</t>
+          <t>2 (28.6%)</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>58 (56.3%)</t>
+          <t>26 (25.2%)</t>
         </is>
       </c>
       <c r="J172">
-        <v>0.008200000000000001</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Otro motivo</t>
+          <t>Camión</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>4 (5.6%)</t>
+          <t>15 (20.8%)</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>6 (12.5%)</t>
+          <t>13 (26.5%)</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>14 (10.4%)</t>
+          <t>46 (33.8%)</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>6 (9.2%)</t>
+          <t>20 (30.3%)</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (14.3%)</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>7 (6.8%)</t>
+          <t>42 (40.8%)</t>
         </is>
       </c>
       <c r="J173">
-        <v>0.008200000000000001</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_compra</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Importancia del costo de compra</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>8 (11.1%)</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>9 (6.6%)</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>8 (12.1%)</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>5.0 (3.5–5.0)</t>
+          <t>2 (28.6%)</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>6 (5.8%)</t>
         </is>
       </c>
       <c r="J174">
-        <v>0.2901</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_uso</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Importancia del costo de uso u operación</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Otro modo</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>4 (5.6%)</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>1 (1.0%)</t>
         </is>
       </c>
       <c r="J175">
-        <v>0.1113</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>p28_importancia_comodidad</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Importancia de la comodidad</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>19 (26.4%)</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>17 (34.7%)</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>50 (36.8%)</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>19 (28.8%)</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>5.0 (2.8–5.0)</t>
+          <t>2 (28.6%)</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>28 (27.2%)</t>
         </is>
       </c>
       <c r="J176">
-        <v>0.5556</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>p28_importancia_tiempo</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Importancia del tiempo de viaje</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Condiciones climáticas</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>2 (2.8%)</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>5 (10.2%)</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>6 (4.4%)</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>1 (1.5%)</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>4.5 (2.5–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>2 (1.9%)</t>
         </is>
       </c>
       <c r="J177">
-        <v>0.0193</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_robo</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de robo o atraco</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Costos altos</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>5.0 (3.2–5.0)</t>
+          <t>14 (19.4%)</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>14 (10.3%)</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>8 (12.1%)</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>2 (28.6%)</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>6 (5.8%)</t>
         </is>
       </c>
       <c r="J178">
-        <v>0.796</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_acoso</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de acoso</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Falta de información</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>3 (4.2%)</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>9 (18.4%)</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>9 (6.6%)</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>11 (10.7%)</t>
         </is>
       </c>
       <c r="J179">
-        <v>0.6786</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>p28_importancia_discriminacion</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de discriminación</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Falta de infraestructura</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>18 (25.0%)</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>6 (12.2%)</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>30 (22.1%)</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>16 (24.2%)</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>1 (14.3%)</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>19 (18.4%)</t>
         </is>
       </c>
       <c r="J180">
-        <v>0.606</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>p28_importancia_emisiones</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Importancia del nivel de emisiones</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Inseguridad / violencia</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>31 (43.1%)</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>5.0 (3.2–5.0)</t>
+          <t>21 (42.9%)</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>63 (46.3%)</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>35 (53.0%)</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>5.0 (3.5–5.0)</t>
+          <t>4 (57.1%)</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>58 (56.3%)</t>
         </is>
       </c>
       <c r="J181">
-        <v>0.1526</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>p28_importancia_siniestralidad</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Importancia de la siniestralidad vial</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>4 (5.6%)</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>6 (12.2%)</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>14 (10.3%)</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>6 (9.1%)</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>4.5 (2.5–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>7 (6.8%)</t>
         </is>
       </c>
       <c r="J182">
-        <v>0.2655</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>p32_contaminacion_likert</t>
+          <t>p28_importancia_costo_compra</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Nivel percibido de contaminación (escala Likert)</t>
-        </is>
+          <t>Importancia del costo de compra</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>5.0 (2.5–5.0)</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>5.0 (3.5–5.0)</t>
+        </is>
+      </c>
+      <c r="J183">
+        <v>0.6711</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>p36_influencia_amigos</t>
+          <t>p28_importancia_costo_uso</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+          <t>Importancia del costo de uso u operación</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–3.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–3.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–4.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–4.0)</t>
+          <t>4.0 (2.2–5.0)</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–5.0)</t>
+          <t>3.0 (1.5–3.5)</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–4.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="J184">
-        <v>0.9062</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
+          <t>p28_importancia_comodidad</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Importancia de la comodidad</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>5.0 (4.8–5.0)</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>5.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="J185">
+        <v>0.0394</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>p28_importancia_tiempo</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Importancia del tiempo de viaje</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="J186">
+        <v>0.0252</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>p28_importancia_riesgo_robo</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de robo o atraco</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="J187">
+        <v>0.8066</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>p28_importancia_riesgo_acoso</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de acoso</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>5.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>5.0 (1.5–5.0)</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="J188">
+        <v>0.8411</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>p28_importancia_discriminacion</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de discriminación</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>4.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>4.0 (1.5–5.0)</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="J189">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>p28_importancia_emisiones</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Importancia del nivel de emisiones</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>5.0 (2.5–5.0)</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="J190">
+        <v>0.8943</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>p28_importancia_siniestralidad</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Importancia de la siniestralidad vial</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>4.5 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>5.0 (3.2–5.0)</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="J191">
+        <v>0.9493</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>p32_contaminacion_likert</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Nivel percibido de contaminación (escala Likert)</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>2.0 (1.0–3.0)</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>4.0 (2.5–5.0)</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>p36_influencia_amigos</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–3.0)</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–3.0)</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="J193">
+        <v>0.9062</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
           <t>p37_influencia_familia</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>Influencia de la familia en la elección del transporte (Likert 1-5)</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="D194" t="inlineStr">
         <is>
           <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>1.0 (1.0–5.0)</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="F194" t="inlineStr">
         <is>
           <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>2.5 (1.0–4.8)</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
+      <c r="H194" t="inlineStr">
         <is>
           <t>5.0 (4.5–5.0)</t>
         </is>
       </c>
-      <c r="I185" t="inlineStr">
+      <c r="I194" t="inlineStr">
         <is>
           <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
-      <c r="J185">
+      <c r="J194">
         <v>0.3029</v>
       </c>
     </row>
